--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1968953.982915391</v>
+        <v>-1975390.507490979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14279422.68621735</v>
+        <v>14278832.70682693</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,7 +674,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>232.7079134209838</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.40730078690045</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>108.419389936787</v>
       </c>
       <c r="F3" t="n">
-        <v>66.79782337412001</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>77.18620118903928</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.08819853356533</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>258.2149227487245</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,7 +911,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -950,19 +950,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>204.6238845812202</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>99.05197172941584</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722575</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>117.7534920891835</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.1096117665585</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>30.93915496378606</v>
+        <v>56.17565220012024</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>187.4032650155696</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>29.86258116538972</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>152.6854816045316</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>120.3656324870987</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>112.8864731701572</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,10 +1622,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>163.6172008425406</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>82.82406701840809</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>40.78297506860809</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>103.5047851553206</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1898,7 +1898,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541617</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875392</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006883</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.373745460747</v>
+        <v>1636.674678391048</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.373745460747</v>
+        <v>1243.499176893978</v>
       </c>
       <c r="D2" t="n">
-        <v>931.9326166774146</v>
+        <v>1243.499176893978</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774146</v>
+        <v>840.9156520105228</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>424.0212135405005</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>414.8988620689078</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475502</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354898</v>
+        <v>1028.526606934764</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="V2" t="n">
-        <v>2084.863489571858</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="W2" t="n">
-        <v>1713.864454540146</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="X2" t="n">
-        <v>1713.864454540146</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.373745460747</v>
+        <v>2037.169424102445</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D3" t="n">
-        <v>505.1591874622378</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E3" t="n">
-        <v>368.7126965731255</v>
+        <v>165.9350528732066</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L3" t="n">
-        <v>156.6106416144824</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>694.8694266245757</v>
+        <v>642.3356118811487</v>
       </c>
       <c r="N3" t="n">
-        <v>1233.128211634669</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O3" t="n">
-        <v>1749.64849422565</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475502</v>
+        <v>1415.153870599099</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>1337.18801081219</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>1204.093585449268</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>1173.71531527537</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.550356385312</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>1419.677996259112</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597376</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628585</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670293</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446872</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R4" t="n">
-        <v>920.6111682660394</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S4" t="n">
-        <v>717.7950844485887</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="T4" t="n">
-        <v>717.7950844485887</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="U4" t="n">
-        <v>717.7950844485887</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="V4" t="n">
-        <v>451.8157392694129</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="W4" t="n">
-        <v>451.8157392694129</v>
+        <v>1872.346253999472</v>
       </c>
       <c r="X4" t="n">
-        <v>451.8157392694129</v>
+        <v>1638.265931782455</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.7036780860563</v>
+        <v>1415.153870599099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.3333414203428</v>
+        <v>989.8414032318723</v>
       </c>
       <c r="C5" t="n">
-        <v>913.3333414203428</v>
+        <v>989.8414032318723</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8922126370105</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357996</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7838773210209</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>528.7662333484827</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="L5" t="n">
-        <v>1022.086525067012</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067012</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704474</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596802</v>
+        <v>2002.068496586573</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.77589852374</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958338</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="V5" t="n">
-        <v>1284.332376452055</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="W5" t="n">
-        <v>913.3333414203428</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="X5" t="n">
-        <v>913.3333414203428</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="Y5" t="n">
-        <v>913.3333414203428</v>
+        <v>1250.664557523513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021456</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>555.760921205766</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272462</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653883</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675997</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431069</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>395.6329346883093</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="C7" t="n">
-        <v>225.4278167542985</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="D7" t="n">
-        <v>225.4278167542985</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E7" t="n">
-        <v>69.86900461350098</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F7" t="n">
-        <v>69.86900461350098</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G7" t="n">
-        <v>69.86900461350098</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H7" t="n">
-        <v>69.86900461350098</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I7" t="n">
-        <v>69.86900461350098</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>678.9633367571316</v>
+        <v>474.1548403012645</v>
       </c>
       <c r="W7" t="n">
-        <v>395.6329346883093</v>
+        <v>190.8244382324421</v>
       </c>
       <c r="X7" t="n">
-        <v>395.6329346883093</v>
+        <v>190.8244382324421</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6329346883093</v>
+        <v>190.8244382324421</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1598.158760966069</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="C8" t="n">
-        <v>1204.983259468999</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="D8" t="n">
-        <v>819.5421306856672</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="E8" t="n">
-        <v>819.5421306856672</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="F8" t="n">
-        <v>402.647692215645</v>
+        <v>566.4762204730126</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1427.426901484996</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1867.466502377325</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2215.653994508847</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1994.649470045468</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.649470045468</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1598.158760966069</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.7447135228761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>523.7447135228761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>368.1116004253909</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1116004253909</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>713.0409408113302</v>
       </c>
       <c r="V10" t="n">
-        <v>713.0409408113302</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W10" t="n">
-        <v>713.0409408113302</v>
+        <v>163.7311935633321</v>
       </c>
       <c r="X10" t="n">
-        <v>523.7447135228761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.7447135228761</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.148693143102</v>
+        <v>1621.583713082509</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.769466792226</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D11" t="n">
-        <v>815.124613155088</v>
+        <v>986.5596330944954</v>
       </c>
       <c r="E11" t="n">
-        <v>815.124613155088</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312597</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654567</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654567</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3075.792161806393</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>3075.792161806393</v>
       </c>
       <c r="U11" t="n">
-        <v>2827.282650873813</v>
+        <v>2891.835707387185</v>
       </c>
       <c r="V11" t="n">
-        <v>2556.972116723525</v>
+        <v>2891.835707387185</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.769356838006</v>
+        <v>2592.632947501666</v>
       </c>
       <c r="X11" t="n">
-        <v>2103.54159764151</v>
+        <v>2274.976617580917</v>
       </c>
       <c r="Y11" t="n">
-        <v>1778.847163708305</v>
+        <v>1950.282183647712</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2146.089571124861</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.3522468384176</v>
+        <v>487.6503970551457</v>
       </c>
       <c r="C13" t="n">
-        <v>327.9434040506006</v>
+        <v>389.2415542673289</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1065660993093</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993093</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1283.090125202603</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>1088.907055169621</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401908</v>
+        <v>877.3729282469924</v>
       </c>
       <c r="X13" t="n">
-        <v>539.763990383525</v>
+        <v>715.0888811761694</v>
       </c>
       <c r="Y13" t="n">
-        <v>539.763990383525</v>
+        <v>601.0621406002531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1615.418592984052</v>
+        <v>1780.935942880364</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.039366633177</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>980.3945129960382</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>980.3945129960382</v>
+        <v>815.1246131550881</v>
       </c>
       <c r="F14" t="n">
-        <v>635.2963496722098</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>293.9298693064068</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2827.282650873813</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2556.972116723525</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2257.769356838006</v>
+        <v>2751.985177299521</v>
       </c>
       <c r="X14" t="n">
-        <v>1940.113026917257</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1615.418592984052</v>
+        <v>2109.634413445567</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
         <v>1458.313011372373</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158407</v>
+        <v>571.25837199077</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411553</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411553</v>
+        <v>472.8495292029531</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1152.070316531346</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915626</v>
+        <v>1047.520028495669</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>835.9859015730401</v>
       </c>
       <c r="X16" t="n">
-        <v>368.041581598111</v>
+        <v>835.9859015730401</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609481</v>
+        <v>684.6701155358774</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>973.7913173233209</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5732,37 +5732,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,19 +6224,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958359</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1925.441780118092</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647883</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388013</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662631</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
         <v>3060.13197616485</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>123.8559155359222</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>607.4220014342354</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517125</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108109</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038543</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170065</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>502.4016765227155</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>870.8603675628848</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>143.5810516071563</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067551</v>
+        <v>225.4160927170982</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076249</v>
+        <v>501.1958531658807</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458889</v>
+        <v>687.4874315041448</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041682</v>
+        <v>870.677065535354</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1145.033953152045</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,28 +6956,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,19 +7014,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>456.9185815712231</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>456.9185815712231</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343054</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1778.52287682331</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1778.52287682331</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2184.144245539707</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.7795079292422</v>
@@ -7442,13 +7442,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7573,10 +7573,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343045</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
         <v>812.1990332879423</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>691.2836731261136</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1319.055322752795</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7804,13 +7804,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
         <v>629.0093992567331</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140969</v>
+        <v>637.9990225493797</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837495</v>
+        <v>210.8379091467836</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083974</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
-        <v>279.7797122508401</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>245.2436944335237</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>224.1336100998649</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.0918232499982</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788174</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>296.0083050530727</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,19 +8772,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3398360504045</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9009,13 +9009,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>403.0555909137002</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9246,19 +9246,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>573.7149542682833</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167031</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,13 +10191,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>140.5980025943151</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095478</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,22 +10662,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>374.1267046741214</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10902,25 +10902,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>289.2815038024237</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>402.611255301132</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90752594823825</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>161.7942850170102</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.29557411301607</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>36.91615500663389</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>86.14670669190168</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>213.3866652682553</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.64177929133066</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>88.73645417733148</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1255161.730409089</v>
+        <v>1254860.956602209</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1255161.730409089</v>
+        <v>1254860.956602209</v>
       </c>
     </row>
     <row r="4">
@@ -26314,34 +26314,34 @@
         <v>18033.21780933569</v>
       </c>
       <c r="C2" t="n">
-        <v>18033.21780933569</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="D2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="E2" t="n">
-        <v>15935.90234244006</v>
+        <v>15935.90234244007</v>
       </c>
       <c r="F2" t="n">
         <v>15935.90234244006</v>
       </c>
       <c r="G2" t="n">
+        <v>18033.21780933567</v>
+      </c>
+      <c r="H2" t="n">
         <v>18033.21780933568</v>
       </c>
-      <c r="H2" t="n">
-        <v>18033.21780933569</v>
-      </c>
       <c r="I2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="J2" t="n">
-        <v>18033.21780933564</v>
+        <v>18033.21780933563</v>
       </c>
       <c r="K2" t="n">
         <v>18033.21780933564</v>
       </c>
       <c r="L2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.2178093357</v>
       </c>
       <c r="M2" t="n">
         <v>18033.21780933569</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728542</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962295</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585815</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589428</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589428</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718595</v>
+        <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623215</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26457,7 +26457,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408931.8364117726</v>
+        <v>-405482.7120181182</v>
       </c>
       <c r="C6" t="n">
-        <v>-226726.8881199165</v>
+        <v>-231624.0549840631</v>
       </c>
       <c r="D6" t="n">
-        <v>-232166.4300957408</v>
+        <v>-239902.7193191324</v>
       </c>
       <c r="E6" t="n">
-        <v>-236361.4673473392</v>
+        <v>-236571.1988940289</v>
       </c>
       <c r="F6" t="n">
-        <v>-124238.9058732947</v>
+        <v>-124448.6374199843</v>
       </c>
       <c r="G6" t="n">
-        <v>-222309.5820503424</v>
+        <v>-222309.5820503423</v>
       </c>
       <c r="H6" t="n">
         <v>-174884.2565136604</v>
@@ -26543,16 +26543,16 @@
         <v>-174884.2565136604</v>
       </c>
       <c r="J6" t="n">
-        <v>-387926.1741109461</v>
+        <v>-381409.8889563729</v>
       </c>
       <c r="K6" t="n">
         <v>-181124.0249164434</v>
       </c>
       <c r="L6" t="n">
-        <v>-236306.6138510645</v>
+        <v>-240355.4510615367</v>
       </c>
       <c r="M6" t="n">
-        <v>-217085.0859732833</v>
+        <v>-218136.7809844716</v>
       </c>
       <c r="N6" t="n">
         <v>-174884.2565136604</v>
@@ -26561,7 +26561,7 @@
         <v>-202651.9505564317</v>
       </c>
       <c r="P6" t="n">
-        <v>-174884.2565136605</v>
+        <v>-174884.2565136604</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660678</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407221</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88.13430650819046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>287.2784404166163</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26.66263604343419</v>
       </c>
       <c r="F3" t="n">
-        <v>56.3896646815795</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>91.31686556563139</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>98.57378094018347</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>138.2748755055584</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>134.0618566222966</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>50.09571640609286</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758549</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>65.60244641520472</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>3.964875705600573</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>378.0919729930908</v>
+        <v>352.8554757567566</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28029,10 +28029,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>44.33625397927713</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>30.27223765901306</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K29" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>86.65052755599572</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833455</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>81.10808140893431</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224734</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861254438</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
@@ -30165,22 +30165,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155855</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30645,13 +30645,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="N43" t="n">
         <v>5.63600263452858</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>35.7104901066877</v>
-      </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163696</v>
+        <v>488.2739709516524</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344376</v>
+        <v>118.4507870974717</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
-        <v>192.6963474315255</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>127.5638564911776</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.83216285893974</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200686284</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899286</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>151.5096066346805</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,19 +35492,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>371.2794891934863</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>310.6684688643883</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>483.6546074113651</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673912</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113952</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.383119385102</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>531.134972901782</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>51.00106726098173</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341209</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>43.49509683160102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>73.93605315237764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553812</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>76.79385455031435</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993544</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>284.5297693407881</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>198.2933506465097</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716083</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37941,13 +37941,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565486</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905432</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>312.5509084442137</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287077</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
